--- a/medicine/Pharmacie/N-Méthyltryptamine/N-Méthyltryptamine.xlsx
+++ b/medicine/Pharmacie/N-Méthyltryptamine/N-Méthyltryptamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N-M%C3%A9thyltryptamine</t>
+          <t>N-Méthyltryptamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La N-méthyltryptamine est un composé de la classe des tryptamines. Il s'agit d'un alcaloïde présent dans l'écorce ou les feuilles de plusieurs plantes comme les acacias, les mimosas ou encore les virolas.
